--- a/mf-intelligence/data/processed/quant/quant_Mid_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Mid_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE151A01013</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tata Communications Limited</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.979951</v>
+        <v>9.897539</v>
       </c>
       <c r="E2" t="n">
-        <v>8.615686</v>
+        <v>8.763819</v>
       </c>
       <c r="F2" t="n">
-        <v>8.720279</v>
+        <v>8.767438</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3642649999999996</v>
+        <v>1.13372</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2596720000000001</v>
+        <v>1.130101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE406A01037</t>
+          <t>INE151A01013</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
+          <t>Tata Communications Limited</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.763819</v>
+        <v>8.547461999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>8.767438</v>
+        <v>8.979951</v>
       </c>
       <c r="F3" t="n">
-        <v>7.974271</v>
+        <v>8.615686</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.003619000000000483</v>
+        <v>-0.4324890000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7895479999999999</v>
+        <v>-0.06822400000000073</v>
       </c>
     </row>
     <row r="4">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>7.117608</v>
+      </c>
+      <c r="E4" t="n">
         <v>6.668885</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>6.565554</v>
       </c>
-      <c r="F4" t="n">
-        <v>6.713747</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.1033310000000007</v>
+        <v>0.4487229999999993</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.04486199999999929</v>
+        <v>0.552054</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE0BS701011</t>
+          <t>INE417T01026</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Premier Energies Limited</t>
+          <t>PB Fintech Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.242897</v>
+        <v>6.003223</v>
       </c>
       <c r="E5" t="n">
-        <v>6.474772</v>
+        <v>5.987753</v>
       </c>
       <c r="F5" t="n">
-        <v>7.106878</v>
+        <v>2.143951</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2318749999999996</v>
+        <v>0.01547000000000054</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.8639809999999999</v>
+        <v>3.859272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE281B01032</t>
+          <t>INE0BS701011</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lloyds Metals And Energy Limited</t>
+          <t>Premier Energies Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.01995</v>
+        <v>5.903756</v>
       </c>
       <c r="E6" t="n">
-        <v>5.364377</v>
+        <v>6.242897</v>
       </c>
       <c r="F6" t="n">
-        <v>5.618652</v>
+        <v>6.474772</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6555729999999995</v>
+        <v>-0.3391410000000006</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4012979999999997</v>
+        <v>-0.5710160000000002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE281B01032</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Lloyds Metals And Energy Limited</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.012765</v>
+        <v>5.563413</v>
       </c>
       <c r="E7" t="n">
-        <v>5.790248</v>
+        <v>6.01995</v>
       </c>
       <c r="F7" t="n">
-        <v>5.378936</v>
+        <v>5.364377</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2225169999999999</v>
+        <v>-0.456537</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6338289999999995</v>
+        <v>0.1990359999999995</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE417T01026</t>
+          <t>INE0CZ201020</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PB Fintech Limited</t>
+          <t>ANTHEM BIOSCIENCES LIMITED</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.987753</v>
+        <v>4.177577</v>
       </c>
       <c r="E8" t="n">
-        <v>2.143951</v>
+        <v>4.105208</v>
       </c>
       <c r="F8" t="n">
-        <v>1.862603</v>
+        <v>2.431707</v>
       </c>
       <c r="G8" t="n">
-        <v>3.843802</v>
+        <v>0.07236900000000013</v>
       </c>
       <c r="H8" t="n">
-        <v>4.12515</v>
+        <v>1.74587</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE0CZ201020</t>
+          <t>INE473A01011</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ANTHEM BIOSCIENCES LIMITED</t>
+          <t>Linde India Ltd.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.105208</v>
+        <v>3.948508</v>
       </c>
       <c r="E9" t="n">
-        <v>2.431707</v>
+        <v>3.538621</v>
       </c>
       <c r="F9" t="n">
-        <v>1.402193</v>
+        <v>3.41999</v>
       </c>
       <c r="G9" t="n">
-        <v>1.673501</v>
+        <v>0.4098869999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2.703015</v>
+        <v>0.528518</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE473A01011</t>
+          <t>INE018E01016</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Linde India Ltd.</t>
+          <t>SBI Cards &amp; Payment Services Ltd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.538621</v>
+        <v>3.113632</v>
       </c>
       <c r="E10" t="n">
-        <v>3.41999</v>
+        <v>2.845461</v>
       </c>
       <c r="F10" t="n">
-        <v>3.377069</v>
+        <v>1.529238</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1186310000000002</v>
+        <v>0.2681710000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1615519999999999</v>
+        <v>1.584394</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE018E01016</t>
+          <t>INE880J01026</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SBI Cards &amp; Payment Services Ltd</t>
+          <t>JSW Infrastructure Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.845461</v>
+        <v>2.346329</v>
       </c>
       <c r="E11" t="n">
-        <v>1.529238</v>
+        <v>2.336732</v>
       </c>
       <c r="F11" t="n">
-        <v>1.495565</v>
+        <v>2.140035</v>
       </c>
       <c r="G11" t="n">
-        <v>1.316223</v>
+        <v>0.009596999999999856</v>
       </c>
       <c r="H11" t="n">
-        <v>1.349896</v>
+        <v>0.2062939999999998</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE154A01025</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.500818</v>
+        <v>2.030154</v>
       </c>
       <c r="E12" t="n">
-        <v>2.420208</v>
+        <v>6.012765</v>
       </c>
       <c r="F12" t="n">
-        <v>2.465386</v>
+        <v>5.790248</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08061000000000007</v>
+        <v>-3.982611</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03543200000000013</v>
+        <v>-3.760094</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE776C01039</t>
+          <t>INE484J01027</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GMR Airports Limited</t>
+          <t>Godrej Properties Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.43113</v>
+        <v>1.593499</v>
       </c>
       <c r="E13" t="n">
-        <v>5.886702</v>
+        <v>1.831049</v>
       </c>
       <c r="F13" t="n">
-        <v>5.001537</v>
+        <v>0.880814</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.455572</v>
+        <v>-0.2375499999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.570407</v>
+        <v>0.712685</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE880J01026</t>
+          <t>INE042A01014</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JSW Infrastructure Limited</t>
+          <t>Escorts Kubota Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.336732</v>
+        <v>1.570087</v>
       </c>
       <c r="E14" t="n">
-        <v>2.140035</v>
+        <v>1.561581</v>
       </c>
       <c r="F14" t="n">
-        <v>2.247703</v>
+        <v>1.546102</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1966969999999999</v>
+        <v>0.008505999999999903</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08902900000000002</v>
+        <v>0.02398499999999992</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE686F01025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>UNITED BREWERIES LIMITED</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.202735</v>
+        <v>1.49927</v>
       </c>
       <c r="E15" t="n">
-        <v>2.183924</v>
+        <v>1.496639</v>
       </c>
       <c r="F15" t="n">
-        <v>2.220652</v>
+        <v>1.505265</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01881099999999991</v>
+        <v>0.00263100000000005</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.01791699999999974</v>
+        <v>-0.005994999999999973</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE484J01027</t>
+          <t>INE881D01027</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Godrej Properties Limited</t>
+          <t>Oracle Financial Services Software Ltd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,30 +940,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.831049</v>
+        <v>1.441495</v>
       </c>
       <c r="E16" t="n">
-        <v>0.880814</v>
+        <v>0.451678</v>
       </c>
       <c r="F16" t="n">
-        <v>0.825861</v>
+        <v>0.459577</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9502349999999999</v>
+        <v>0.9898169999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1.005188</v>
+        <v>0.981918</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE042A01014</t>
+          <t>INE298J01013</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Escorts Kubota Limited</t>
+          <t>Nippon Life India Asset Management Ltd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -972,30 +972,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.561581</v>
+        <v>1.333105</v>
       </c>
       <c r="E17" t="n">
-        <v>1.546102</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.356743</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01547900000000002</v>
+        <v>1.333105</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2048380000000001</v>
+        <v>1.333105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE686F01025</t>
+          <t>INE776C01039</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UNITED BREWERIES LIMITED</t>
+          <t>GMR Airports Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1004,30 +1004,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.496639</v>
+        <v>1.181887</v>
       </c>
       <c r="E18" t="n">
-        <v>1.505265</v>
+        <v>2.43113</v>
       </c>
       <c r="F18" t="n">
-        <v>1.56779</v>
+        <v>5.886702</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.008626000000000023</v>
+        <v>-1.249243</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07115099999999996</v>
+        <v>-4.704815</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE115A01026</t>
+          <t>INE699H01024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LIC Housing Finance Ltd</t>
+          <t>Adani Wilmar Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1036,30 +1036,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.475937</v>
+        <v>1.150061</v>
       </c>
       <c r="E19" t="n">
-        <v>1.449149</v>
+        <v>1.152939</v>
       </c>
       <c r="F19" t="n">
-        <v>1.476151</v>
+        <v>1.214043</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02678800000000003</v>
+        <v>-0.002877999999999936</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0002139999999999365</v>
+        <v>-0.06398199999999998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE699H01024</t>
+          <t>INE0J1Y01017</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Adani Wilmar Limited</t>
+          <t>Life Insurance Corporation Of India</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1068,30 +1068,30 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.152939</v>
+        <v>1.118878</v>
       </c>
       <c r="E20" t="n">
-        <v>1.214043</v>
+        <v>1.048692</v>
       </c>
       <c r="F20" t="n">
-        <v>0.675934</v>
+        <v>1.058558</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.06110400000000005</v>
+        <v>0.07018600000000008</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4770049999999999</v>
+        <v>0.06031999999999993</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE0J1Y01017</t>
+          <t>INE584A01023</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Life Insurance Corporation Of India</t>
+          <t>NMDC Ltd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1100,30 +1100,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.048692</v>
+        <v>0.717933</v>
       </c>
       <c r="E21" t="n">
-        <v>1.058558</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.037306</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.009866000000000152</v>
+        <v>0.717933</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0113859999999999</v>
+        <v>0.717933</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE881D01027</t>
+          <t>INE376G01013</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Oracle Financial Services Software Ltd</t>
+          <t>Biocon Ltd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1132,30 +1132,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.451678</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.459577</v>
+        <v>0.381318</v>
       </c>
       <c r="F22" t="n">
-        <v>0.472883</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.007898999999999989</v>
+        <v>-0.381318</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.02120499999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE376G01013</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Biocon Ltd</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1164,30 +1164,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.381318</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.202735</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.183924</v>
       </c>
       <c r="G23" t="n">
-        <v>0.381318</v>
+        <v>-2.202735</v>
       </c>
       <c r="H23" t="n">
-        <v>0.381318</v>
+        <v>-2.183924</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE335Y01020</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Indian Railway Catering &amp; Tourism Corp</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1199,27 +1199,27 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.360811</v>
+        <v>2.500818</v>
       </c>
       <c r="F24" t="n">
-        <v>1.395242</v>
+        <v>2.420208</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.360811</v>
+        <v>-2.500818</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.395242</v>
+        <v>-2.420208</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE14LE01019</t>
+          <t>INE115A01026</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Aditya Birla Lifestyle Brands Limited</t>
+          <t>LIC Housing Finance Ltd</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1231,27 +1231,27 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.475937</v>
       </c>
       <c r="F25" t="n">
-        <v>0.433233</v>
+        <v>1.449149</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.475937</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.433233</v>
+        <v>-1.449149</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE094A01015</t>
+          <t>INE335Y01020</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hindustan Petroleum Corporation Ltd</t>
+          <t>Indian Railway Catering &amp; Tourism Corp</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1266,45 +1266,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>3.216334</v>
+        <v>1.360811</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.216334</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>INE326A01037</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Lupin Limited</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>quant Mid Cap Fund</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.992746</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-0.992746</v>
+        <v>-1.360811</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Mid_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Mid_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.897539</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>8.763819</v>
       </c>
-      <c r="F2" t="n">
-        <v>8.767438</v>
-      </c>
       <c r="G2" t="n">
+        <v>7.974271</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.13372</v>
       </c>
-      <c r="H2" t="n">
-        <v>1.130101</v>
+      <c r="I2" t="n">
+        <v>1.923268</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>8.547461999999999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.979951</v>
       </c>
-      <c r="F3" t="n">
-        <v>8.615686</v>
-      </c>
       <c r="G3" t="n">
+        <v>8.720279</v>
+      </c>
+      <c r="H3" t="n">
         <v>-0.4324890000000003</v>
       </c>
-      <c r="H3" t="n">
-        <v>-0.06822400000000073</v>
+      <c r="I3" t="n">
+        <v>-0.1728170000000002</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>7.117608</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>6.668885</v>
       </c>
-      <c r="F4" t="n">
-        <v>6.565554</v>
-      </c>
       <c r="G4" t="n">
+        <v>6.713747</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4487229999999993</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.552054</v>
+      <c r="I4" t="n">
+        <v>0.403861</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>6.003223</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>5.987753</v>
       </c>
-      <c r="F5" t="n">
-        <v>2.143951</v>
-      </c>
       <c r="G5" t="n">
+        <v>1.862603</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.01547000000000054</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.859272</v>
+      <c r="I5" t="n">
+        <v>4.14062</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>5.903756</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6.242897</v>
       </c>
-      <c r="F6" t="n">
-        <v>6.474772</v>
-      </c>
       <c r="G6" t="n">
+        <v>7.106878</v>
+      </c>
+      <c r="H6" t="n">
         <v>-0.3391410000000006</v>
       </c>
-      <c r="H6" t="n">
-        <v>-0.5710160000000002</v>
+      <c r="I6" t="n">
+        <v>-1.203122</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>5.563413</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.01995</v>
       </c>
-      <c r="F7" t="n">
-        <v>5.364377</v>
-      </c>
       <c r="G7" t="n">
+        <v>5.618652</v>
+      </c>
+      <c r="H7" t="n">
         <v>-0.456537</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.1990359999999995</v>
+      <c r="I7" t="n">
+        <v>-0.05523900000000026</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>4.177577</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.105208</v>
       </c>
-      <c r="F8" t="n">
-        <v>2.431707</v>
-      </c>
       <c r="G8" t="n">
+        <v>1.402193</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.07236900000000013</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.74587</v>
+      <c r="I8" t="n">
+        <v>2.775384</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>3.948508</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.538621</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.41999</v>
-      </c>
       <c r="G9" t="n">
+        <v>3.377069</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.4098869999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.528518</v>
+      <c r="I9" t="n">
+        <v>0.5714389999999998</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>3.113632</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.845461</v>
       </c>
-      <c r="F10" t="n">
-        <v>1.529238</v>
-      </c>
       <c r="G10" t="n">
+        <v>1.495565</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2681710000000002</v>
       </c>
-      <c r="H10" t="n">
-        <v>1.584394</v>
+      <c r="I10" t="n">
+        <v>1.618067</v>
       </c>
     </row>
     <row r="11">
@@ -779,20 +829,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>2.346329</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.336732</v>
       </c>
-      <c r="F11" t="n">
-        <v>2.140035</v>
-      </c>
       <c r="G11" t="n">
+        <v>2.247703</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.009596999999999856</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.2062939999999998</v>
+      <c r="I11" t="n">
+        <v>0.09862599999999988</v>
       </c>
     </row>
     <row r="12">
@@ -811,20 +866,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.030154</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>6.012765</v>
       </c>
-      <c r="F12" t="n">
-        <v>5.790248</v>
-      </c>
       <c r="G12" t="n">
+        <v>5.378936</v>
+      </c>
+      <c r="H12" t="n">
         <v>-3.982611</v>
       </c>
-      <c r="H12" t="n">
-        <v>-3.760094</v>
+      <c r="I12" t="n">
+        <v>-3.348782</v>
       </c>
     </row>
     <row r="13">
@@ -843,20 +903,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>1.593499</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.831049</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.880814</v>
-      </c>
       <c r="G13" t="n">
+        <v>0.825861</v>
+      </c>
+      <c r="H13" t="n">
         <v>-0.2375499999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.712685</v>
+      <c r="I13" t="n">
+        <v>0.767638</v>
       </c>
     </row>
     <row r="14">
@@ -875,20 +940,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>1.570087</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.561581</v>
       </c>
-      <c r="F14" t="n">
-        <v>1.546102</v>
-      </c>
       <c r="G14" t="n">
+        <v>1.356743</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.008505999999999903</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.02398499999999992</v>
+      <c r="I14" t="n">
+        <v>0.213344</v>
       </c>
     </row>
     <row r="15">
@@ -907,20 +977,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>1.49927</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.496639</v>
       </c>
-      <c r="F15" t="n">
-        <v>1.505265</v>
-      </c>
       <c r="G15" t="n">
+        <v>1.56779</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.00263100000000005</v>
       </c>
-      <c r="H15" t="n">
-        <v>-0.005994999999999973</v>
+      <c r="I15" t="n">
+        <v>-0.06851999999999991</v>
       </c>
     </row>
     <row r="16">
@@ -939,20 +1014,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>1.441495</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.451678</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.459577</v>
-      </c>
       <c r="G16" t="n">
+        <v>0.472883</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.9898169999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.981918</v>
+      <c r="I16" t="n">
+        <v>0.968612</v>
       </c>
     </row>
     <row r="17">
@@ -971,21 +1051,26 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>1.333105</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.333105</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>1.333105</v>
       </c>
+      <c r="I17" t="n">
+        <v>1.333105</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1003,20 +1088,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>1.181887</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>2.43113</v>
       </c>
-      <c r="F18" t="n">
-        <v>5.886702</v>
-      </c>
       <c r="G18" t="n">
+        <v>5.001537</v>
+      </c>
+      <c r="H18" t="n">
         <v>-1.249243</v>
       </c>
-      <c r="H18" t="n">
-        <v>-4.704815</v>
+      <c r="I18" t="n">
+        <v>-3.81965</v>
       </c>
     </row>
     <row r="19">
@@ -1035,20 +1125,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>1.150061</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.152939</v>
       </c>
-      <c r="F19" t="n">
-        <v>1.214043</v>
-      </c>
       <c r="G19" t="n">
+        <v>0.675934</v>
+      </c>
+      <c r="H19" t="n">
         <v>-0.002877999999999936</v>
       </c>
-      <c r="H19" t="n">
-        <v>-0.06398199999999998</v>
+      <c r="I19" t="n">
+        <v>0.474127</v>
       </c>
     </row>
     <row r="20">
@@ -1067,20 +1162,25 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>1.118878</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.048692</v>
       </c>
-      <c r="F20" t="n">
-        <v>1.058558</v>
-      </c>
       <c r="G20" t="n">
+        <v>1.037306</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.07018600000000008</v>
       </c>
-      <c r="H20" t="n">
-        <v>0.06031999999999993</v>
+      <c r="I20" t="n">
+        <v>0.08157199999999998</v>
       </c>
     </row>
     <row r="21">
@@ -1099,31 +1199,36 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>0.717933</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.717933</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0.717933</v>
       </c>
+      <c r="I21" t="n">
+        <v>0.717933</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE376G01013</t>
+          <t>INE335Y01020</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Biocon Ltd</t>
+          <t>Indian Railway Catering &amp; Tourism Corp</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1131,31 +1236,36 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>0.381318</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.381318</v>
+        <v>1.395242</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-1.395242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE376G01013</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>Biocon Ltd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1163,31 +1273,36 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>2.202735</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2.183924</v>
+        <v>0.381318</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.202735</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.183924</v>
+        <v>-0.381318</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE154A01025</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1195,31 +1310,36 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>2.500818</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2.420208</v>
+        <v>2.202735</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.500818</v>
+        <v>2.220652</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.420208</v>
+        <v>-2.202735</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-2.220652</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE115A01026</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LIC Housing Finance Ltd</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1227,31 +1347,36 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>1.475937</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.449149</v>
+        <v>2.500818</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.475937</v>
+        <v>2.465386</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.449149</v>
+        <v>-2.500818</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-2.465386</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE335Y01020</t>
+          <t>INE14LE01019</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Indian Railway Catering &amp; Tourism Corp</t>
+          <t>Aditya Birla Lifestyle Brands Limited</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1259,20 +1384,136 @@
           <t>quant Mid Cap Fund</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.360811</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.433233</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.360811</v>
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.433233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>INE115A01026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>LIC Housing Finance Ltd</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.475937</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.476151</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1.475937</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-1.476151</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>INE094A01015</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hindustan Petroleum Corporation Ltd</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.216334</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-3.216334</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>INE326A01037</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lupin Limited</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.992746</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.992746</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Mid_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Mid_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.897539</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>8.763819</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>7.974271</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>1.13372</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>1.923268</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.547461999999999</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>8.979951</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>8.720279</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>-0.4324890000000003</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-0.1728170000000002</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.117608</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>6.668885</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>6.713747</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.4487229999999993</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.403861</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Financial Technology (Fintech)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>6.003223</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>5.987753</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1.862603</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.01547000000000054</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>4.14062</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5.903756</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>6.242897</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>7.106878</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-0.3391410000000006</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-1.203122</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Minerals &amp; Mining</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.563413</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>6.01995</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>5.618652</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>-0.456537</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>-0.05523900000000026</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.177577</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>4.105208</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>1.402193</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.07236900000000013</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>2.775384</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.948508</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>3.538621</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>3.377069</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.4098869999999999</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.5714389999999998</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.113632</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.845461</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>1.495565</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.2681710000000002</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>1.618067</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.346329</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>2.336732</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>2.247703</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.009596999999999856</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.09862599999999988</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.030154</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>6.012765</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>5.378936</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>-3.982611</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>-3.348782</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.593499</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1.831049</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.825861</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>-0.2375499999999999</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.767638</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Agricultural, Commercial &amp; Construction Vehicles</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.570087</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1.561581</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1.356743</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.008505999999999903</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.213344</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.49927</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1.496639</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>1.56779</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.00263100000000005</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>-0.06851999999999991</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.441495</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.451678</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>0.472883</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>0.9898169999999999</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>0.968612</v>
       </c>
     </row>
@@ -1048,29 +1128,34 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.333105</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.333105</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>1.333105</v>
       </c>
+      <c r="J17" t="n">
+        <v>1.333105</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.181887</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>2.43113</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>5.001537</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-1.249243</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>-3.81965</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.150061</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1.152939</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>0.675934</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>-0.002877999999999936</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0.474127</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.118878</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1.048692</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>1.037306</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>0.07018600000000008</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0.08157199999999998</v>
       </c>
     </row>
@@ -1196,29 +1296,34 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Minerals &amp; Mining</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.717933</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.717933</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0.717933</v>
       </c>
+      <c r="J21" t="n">
+        <v>0.717933</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.395242</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>-1.395242</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.381318</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>-0.381318</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>2.202735</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>2.220652</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>-2.202735</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>-2.220652</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>2.500818</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>2.465386</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>-2.500818</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>-2.465386</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.433233</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>-0.433233</v>
       </c>
     </row>
@@ -1418,27 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>1.475937</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>1.476151</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>-1.475937</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>-1.476151</v>
       </c>
     </row>
@@ -1455,27 +1590,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>3.216334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>-3.216334</v>
       </c>
     </row>
@@ -1492,27 +1632,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>quant Mid Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>quant Mid Cap Fund</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.992746</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>-0.992746</v>
       </c>
     </row>
